--- a/string-similarity/KMP/kmp-next.xlsx
+++ b/string-similarity/KMP/kmp-next.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="8160" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +275,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -291,62 +294,262 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380197</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="597704" cy="1032940"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3898900" y="1905000"/>
-          <a:ext cx="4800600" cy="698500"/>
+          <a:off x="9422597" y="723900"/>
+          <a:ext cx="597704" cy="1032940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>初始化</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:tint val="85000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="876300"/>
+          <a:ext cx="2616200" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -100931"/>
+            <a:gd name="adj2" fmla="val 25925"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pattern[j]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>==</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pattern[i]:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>next[i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>j+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表示有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>j+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个相同部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="2222500"/>
+          <a:ext cx="2679700" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -97954"/>
+            <a:gd name="adj2" fmla="val -1562"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>这里需要回退</a:t>
           </a:r>
@@ -438,6 +641,21 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>的位置，为什么呢？</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>next[2]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 表示上一个有几个公共最长前缀和后缀</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -713,7 +931,7 @@
   <dimension ref="A1:AL375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -900,26 +1118,60 @@
       <c r="T2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="13">
         <v>0</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
+      <c r="V2" s="13">
+        <v>1</v>
+      </c>
+      <c r="W2" s="13">
+        <v>2</v>
+      </c>
+      <c r="X2" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="13">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="13">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="13">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -950,7 +1202,9 @@
       <c r="T3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="9"/>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
       <c r="V3" s="9">
         <v>0</v>
       </c>
